--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB204.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB204.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A56EEB-8218-4183-9320-76190463B4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38731E10-C938-42E9-A4AF-BCEA5F083578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2638,7 +2638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF89516-5E19-4067-8EBA-B2462299ADF5}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
